--- a/BackTest/2020-01-20 BackTest KNC.xlsx
+++ b/BackTest/2020-01-20 BackTest KNC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:M116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-100110.7081</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>-103675.2872948328</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>-103875.2872948328</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>-148204.1099948328</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>-140243.7640948328</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1144,15 @@
         <v>-109155.5301948328</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1177,15 @@
         <v>-105860.9873948328</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1210,15 @@
         <v>-102204.7745838477</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1243,15 @@
         <v>-105860.9873838477</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1342,15 @@
         <v>-103731.9105838477</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>-97420.01708384772</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1408,15 @@
         <v>-98170.01708384772</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>-98170.01708384772</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1474,15 @@
         <v>-97670.01708384772</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1507,15 @@
         <v>-97694.46708384772</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1540,15 @@
         <v>-97927.54888384772</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1573,15 @@
         <v>-98690.21508384772</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,18 +1606,15 @@
         <v>-99904.29338384772</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1752,18 +1639,15 @@
         <v>-101304.2933838477</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2364,18 +2200,15 @@
         <v>-117906.5378838477</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2400,18 +2233,15 @@
         <v>-120106.5378838477</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2436,18 +2266,15 @@
         <v>-120102.9539399166</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2472,18 +2299,15 @@
         <v>-120844.6968399165</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2508,18 +2332,15 @@
         <v>-120622.4000399166</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2544,18 +2365,15 @@
         <v>-120522.4000399166</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2580,18 +2398,15 @@
         <v>-120663.8370399166</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2616,18 +2431,15 @@
         <v>-121163.8369399166</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2652,18 +2464,15 @@
         <v>-121160.6501947604</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2688,18 +2497,15 @@
         <v>-122412.6072947604</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2724,18 +2530,15 @@
         <v>-120246.2124947604</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2760,18 +2563,15 @@
         <v>-122415.7603947604</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2796,18 +2596,15 @@
         <v>-122415.7603947604</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2832,18 +2629,15 @@
         <v>-122415.7603947604</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2868,18 +2662,15 @@
         <v>-122415.7603947604</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2904,18 +2695,15 @@
         <v>-122415.7603947604</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2940,18 +2728,15 @@
         <v>-122415.7603947604</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2976,18 +2761,15 @@
         <v>-123242.5412947604</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3012,18 +2794,15 @@
         <v>-123242.5412947604</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3048,18 +2827,15 @@
         <v>-123242.5412947604</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3084,18 +2860,15 @@
         <v>-123766.7239947604</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3120,18 +2893,15 @@
         <v>-122408.7222947604</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3156,18 +2926,15 @@
         <v>-122408.7222947604</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3228,18 +2992,15 @@
         <v>-121982.3144947604</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3768,18 +3487,15 @@
         <v>-120838.0449890952</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3804,18 +3520,15 @@
         <v>-122183.0718890952</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3876,18 +3586,15 @@
         <v>-164433.0718890952</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4236,22 +3916,15 @@
         <v>-180679.4961890952</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
-        <v>294.2</v>
-      </c>
-      <c r="K107" t="n">
-        <v>294.2</v>
-      </c>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4276,26 +3949,21 @@
         <v>-190260.0478890952</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
         <v>294</v>
       </c>
-      <c r="K108" t="n">
-        <v>294.2</v>
-      </c>
-      <c r="L108" t="inlineStr">
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4320,26 +3988,21 @@
         <v>-188253.3716890952</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
         <v>292.3</v>
       </c>
-      <c r="K109" t="n">
-        <v>294.2</v>
-      </c>
-      <c r="L109" t="inlineStr">
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4364,26 +4027,21 @@
         <v>-188442.9639890952</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
         <v>299.8</v>
       </c>
-      <c r="K110" t="n">
-        <v>294.2</v>
-      </c>
-      <c r="L110" t="inlineStr">
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4408,26 +4066,21 @@
         <v>-188492.8389890952</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
         <v>296</v>
       </c>
-      <c r="K111" t="n">
-        <v>294.2</v>
-      </c>
-      <c r="L111" t="inlineStr">
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4452,26 +4105,21 @@
         <v>-187594.8389890952</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
         <v>294</v>
       </c>
-      <c r="K112" t="n">
-        <v>294.2</v>
-      </c>
-      <c r="L112" t="inlineStr">
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4496,26 +4144,21 @@
         <v>-187311.7540890952</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
         <v>295</v>
       </c>
-      <c r="K113" t="n">
-        <v>294.2</v>
-      </c>
-      <c r="L113" t="inlineStr">
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4540,26 +4183,21 @@
         <v>-187328.6061281919</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
         <v>297</v>
       </c>
-      <c r="K114" t="n">
-        <v>294.2</v>
-      </c>
-      <c r="L114" t="inlineStr">
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4584,26 +4222,21 @@
         <v>-187332.6061281919</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
         <v>296.7</v>
       </c>
-      <c r="K115" t="n">
-        <v>294.2</v>
-      </c>
-      <c r="L115" t="inlineStr">
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4628,28 +4261,23 @@
         <v>-187332.6061281919</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
         <v>295</v>
       </c>
-      <c r="K116" t="n">
-        <v>294.2</v>
-      </c>
-      <c r="L116" t="inlineStr">
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest KNC.xlsx
+++ b/BackTest/2020-01-20 BackTest KNC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-100110.7081</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-99029.55349999998</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-100833.6292</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-105198.0267</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-104984.4544948328</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-105119.2872948328</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-103675.2872948328</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-103875.2872948328</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-103775.2872948328</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-105222.6821948328</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-105222.6821948328</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-105292.6821948328</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-148204.1099948328</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-138204.1099948328</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-143328.4119948328</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-142923.9622948328</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-141654.1521948328</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-141654.1521948328</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-141404.1521948328</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-140243.7640948328</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-109155.5301948328</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-105860.9873948328</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-102204.7745838477</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-105860.9873838477</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-103741.9105838477</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-103731.9105838477</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-103731.9105838477</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-97420.01708384772</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-98170.01708384772</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-98170.01708384772</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-97670.01708384772</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-97694.46708384772</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-97927.54888384772</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-98690.21508384772</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-99904.29338384772</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-101304.2933838477</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-104673.2933838477</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-104857.0894838477</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-104929.1151838477</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-105225.7337838477</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-107425.7337838477</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-106625.7337838477</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-108825.7337838477</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-103704.6110838477</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-107686.3430838477</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-107871.7051838477</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-117906.5378838477</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-120106.5378838477</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-120102.9539399166</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-120844.6968399165</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-120622.4000399166</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-120522.4000399166</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-120663.8370399166</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-121163.8369399166</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-121160.6501947604</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-122412.6072947604</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-120246.2124947604</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-122415.7603947604</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-122415.7603947604</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-122415.7603947604</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-122415.7603947604</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-122415.7603947604</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-122415.7603947604</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-123242.5412947604</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-123242.5412947604</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-123242.5412947604</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-123766.7239947604</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-122408.7222947604</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-122408.7222947604</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-121982.3144947604</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-120838.0449890952</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-122183.0718890952</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-164433.0718890952</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3883,11 +3883,17 @@
         <v>-180228.2507890952</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>295</v>
+      </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3916,11 +3922,17 @@
         <v>-180679.4961890952</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>294.2</v>
+      </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3949,7 +3961,7 @@
         <v>-190260.0478890952</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>294</v>
@@ -3957,7 +3969,7 @@
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L108" t="n">
@@ -3988,7 +4000,7 @@
         <v>-188253.3716890952</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>292.3</v>
@@ -4027,7 +4039,7 @@
         <v>-188442.9639890952</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>299.8</v>
@@ -4066,7 +4078,7 @@
         <v>-188492.8389890952</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>296</v>
@@ -4105,7 +4117,7 @@
         <v>-187594.8389890952</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>294</v>
@@ -4144,7 +4156,7 @@
         <v>-187311.7540890952</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>295</v>
@@ -4183,7 +4195,7 @@
         <v>-187328.6061281919</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>297</v>
@@ -4222,7 +4234,7 @@
         <v>-187332.6061281919</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>296.7</v>
@@ -4261,7 +4273,7 @@
         <v>-187332.6061281919</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>295</v>
@@ -4278,6 +4290,6 @@
       <c r="M116" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest KNC.xlsx
+++ b/BackTest/2020-01-20 BackTest KNC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -583,7 +583,7 @@
         <v>-105030.0472</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-105222.6821948328</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-105222.6821948328</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-105292.6821948328</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-148204.1099948328</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-138204.1099948328</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-143328.4119948328</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-142923.9622948328</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-141654.1521948328</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-141404.1521948328</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-140243.7640948328</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-109155.5301948328</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-105860.9873948328</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-102204.7745838477</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-105860.9873838477</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-103741.9105838477</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-103731.9105838477</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-103731.9105838477</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-97420.01708384772</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-98170.01708384772</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-98170.01708384772</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-97670.01708384772</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-97694.46708384772</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-97927.54888384772</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-98690.21508384772</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-99904.29338384772</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-101304.2933838477</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-104673.2933838477</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-104857.0894838477</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-104929.1151838477</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-105225.7337838477</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-107425.7337838477</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-106625.7337838477</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-108825.7337838477</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-103704.6110838477</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-107686.3430838477</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-107871.7051838477</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-122415.7603947604</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-123242.5412947604</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-123242.5412947604</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-123242.5412947604</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-123766.7239947604</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-122408.7222947604</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-122408.7222947604</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-121695.7401890951</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-121246.6688890951</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-121100.6523890952</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-121100.6523890952</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-121600.3022890952</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-121600.3022890952</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-120838.0449890952</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-122183.0718890952</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-130183.0718890952</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-164433.0718890952</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3883,95 +3883,89 @@
         <v>-180228.2507890952</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>295</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>294</v>
+      </c>
+      <c r="C107" t="n">
+        <v>294</v>
+      </c>
+      <c r="D107" t="n">
+        <v>294</v>
+      </c>
+      <c r="E107" t="n">
+        <v>294</v>
+      </c>
+      <c r="F107" t="n">
+        <v>451.2454</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-180679.4961890952</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>294.2</v>
+      </c>
+      <c r="J107" t="n">
+        <v>294.2</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>293.3</v>
+      </c>
+      <c r="C108" t="n">
+        <v>292.3</v>
+      </c>
+      <c r="D108" t="n">
+        <v>293.3</v>
+      </c>
+      <c r="E108" t="n">
+        <v>292.3</v>
+      </c>
+      <c r="F108" t="n">
+        <v>9580.5517</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-190260.0478890952</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>294</v>
+      </c>
+      <c r="J108" t="n">
+        <v>294.2</v>
+      </c>
+      <c r="K108" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>294</v>
-      </c>
-      <c r="C107" t="n">
-        <v>294</v>
-      </c>
-      <c r="D107" t="n">
-        <v>294</v>
-      </c>
-      <c r="E107" t="n">
-        <v>294</v>
-      </c>
-      <c r="F107" t="n">
-        <v>451.2454</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-180679.4961890952</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>294.2</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>293.3</v>
-      </c>
-      <c r="C108" t="n">
-        <v>292.3</v>
-      </c>
-      <c r="D108" t="n">
-        <v>293.3</v>
-      </c>
-      <c r="E108" t="n">
-        <v>292.3</v>
-      </c>
-      <c r="F108" t="n">
-        <v>9580.5517</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-190260.0478890952</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>294</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4005,7 +3999,9 @@
       <c r="I109" t="n">
         <v>292.3</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>294.2</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4044,7 +4040,9 @@
       <c r="I110" t="n">
         <v>299.8</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>294.2</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4083,7 +4081,9 @@
       <c r="I111" t="n">
         <v>296</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>294.2</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4122,7 +4122,9 @@
       <c r="I112" t="n">
         <v>294</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>294.2</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4161,7 +4163,9 @@
       <c r="I113" t="n">
         <v>295</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>294.2</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4200,7 +4204,9 @@
       <c r="I114" t="n">
         <v>297</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>294.2</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4239,7 +4245,9 @@
       <c r="I115" t="n">
         <v>296.7</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>294.2</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4278,7 +4286,9 @@
       <c r="I116" t="n">
         <v>295</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>294.2</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4290,6 +4300,6 @@
       <c r="M116" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest KNC.xlsx
+++ b/BackTest/2020-01-20 BackTest KNC.xlsx
@@ -451,7 +451,7 @@
         <v>-100110.7081</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-105222.6821948328</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-105222.6821948328</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-141654.1521948328</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-102204.7745838477</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-105860.9873838477</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-103741.9105838477</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-103731.9105838477</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-103731.9105838477</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-97420.01708384772</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-98170.01708384772</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-98170.01708384772</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-97670.01708384772</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-97694.46708384772</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-97927.54888384772</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-98690.21508384772</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-99904.29338384772</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-101304.2933838477</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-122415.7603947604</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-123242.5412947604</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-123242.5412947604</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-123242.5412947604</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-123766.7239947604</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-122408.7222947604</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-122408.7222947604</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-121695.7401890951</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-121246.6688890951</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-121100.6523890952</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-121100.6523890952</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-121600.3022890952</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-121600.3022890952</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-120838.0449890952</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-122183.0718890952</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-130183.0718890952</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-164433.0718890952</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3916,14 +3916,10 @@
         <v>-180679.4961890952</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>294.2</v>
-      </c>
-      <c r="J107" t="n">
-        <v>294.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
@@ -3958,9 +3954,7 @@
       <c r="I108" t="n">
         <v>294</v>
       </c>
-      <c r="J108" t="n">
-        <v>294.2</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -3999,9 +3993,7 @@
       <c r="I109" t="n">
         <v>292.3</v>
       </c>
-      <c r="J109" t="n">
-        <v>294.2</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4040,9 +4032,7 @@
       <c r="I110" t="n">
         <v>299.8</v>
       </c>
-      <c r="J110" t="n">
-        <v>294.2</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4081,9 +4071,7 @@
       <c r="I111" t="n">
         <v>296</v>
       </c>
-      <c r="J111" t="n">
-        <v>294.2</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4122,9 +4110,7 @@
       <c r="I112" t="n">
         <v>294</v>
       </c>
-      <c r="J112" t="n">
-        <v>294.2</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4163,9 +4149,7 @@
       <c r="I113" t="n">
         <v>295</v>
       </c>
-      <c r="J113" t="n">
-        <v>294.2</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4204,9 +4188,7 @@
       <c r="I114" t="n">
         <v>297</v>
       </c>
-      <c r="J114" t="n">
-        <v>294.2</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4245,9 +4227,7 @@
       <c r="I115" t="n">
         <v>296.7</v>
       </c>
-      <c r="J115" t="n">
-        <v>294.2</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4286,9 +4266,7 @@
       <c r="I116" t="n">
         <v>295</v>
       </c>
-      <c r="J116" t="n">
-        <v>294.2</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2020-01-20 BackTest KNC.xlsx
+++ b/BackTest/2020-01-20 BackTest KNC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M116"/>
+  <dimension ref="A1:L116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>181.5476</v>
       </c>
       <c r="G2" t="n">
-        <v>-100110.7081</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>1081.1546</v>
       </c>
       <c r="G3" t="n">
-        <v>-99029.55349999998</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>1804.0757</v>
       </c>
       <c r="G4" t="n">
-        <v>-100833.6292</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>4364.3975</v>
       </c>
       <c r="G5" t="n">
-        <v>-105198.0267</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>167.9795</v>
       </c>
       <c r="G6" t="n">
-        <v>-105030.0472</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>45.59270516717325</v>
       </c>
       <c r="G7" t="n">
-        <v>-104984.4544948328</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>134.8328</v>
       </c>
       <c r="G8" t="n">
-        <v>-105119.2872948328</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>1444</v>
       </c>
       <c r="G9" t="n">
-        <v>-103675.2872948328</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>200</v>
       </c>
       <c r="G10" t="n">
-        <v>-103875.2872948328</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>-103775.2872948328</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>1447.3949</v>
       </c>
       <c r="G12" t="n">
-        <v>-105222.6821948328</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>124.6675</v>
       </c>
       <c r="G13" t="n">
-        <v>-105222.6821948328</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>70</v>
       </c>
       <c r="G14" t="n">
-        <v>-105292.6821948328</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>42911.4278</v>
       </c>
       <c r="G15" t="n">
-        <v>-148204.1099948328</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>10000</v>
       </c>
       <c r="G16" t="n">
-        <v>-138204.1099948328</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>5124.302</v>
       </c>
       <c r="G17" t="n">
-        <v>-143328.4119948328</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>404.4497</v>
       </c>
       <c r="G18" t="n">
-        <v>-142923.9622948328</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>1269.8101</v>
       </c>
       <c r="G19" t="n">
-        <v>-141654.1521948328</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>301.3078</v>
       </c>
       <c r="G20" t="n">
-        <v>-141654.1521948328</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>250</v>
       </c>
       <c r="G21" t="n">
-        <v>-141404.1521948328</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>1160.3881</v>
       </c>
       <c r="G22" t="n">
-        <v>-140243.7640948328</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>31088.2339</v>
       </c>
       <c r="G23" t="n">
-        <v>-109155.5301948328</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>3294.5428</v>
       </c>
       <c r="G24" t="n">
-        <v>-105860.9873948328</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>3656.212810985075</v>
       </c>
       <c r="G25" t="n">
-        <v>-102204.7745838477</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>3656.2128</v>
       </c>
       <c r="G26" t="n">
-        <v>-105860.9873838477</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>2119.0768</v>
       </c>
       <c r="G27" t="n">
-        <v>-103741.9105838477</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>-103731.9105838477</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>1586.6238</v>
       </c>
       <c r="G29" t="n">
-        <v>-103731.9105838477</v>
-      </c>
-      <c r="H29" t="n">
         <v>2</v>
       </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>6311.8935</v>
       </c>
       <c r="G30" t="n">
-        <v>-97420.01708384772</v>
-      </c>
-      <c r="H30" t="n">
         <v>2</v>
       </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>750</v>
       </c>
       <c r="G31" t="n">
-        <v>-98170.01708384772</v>
-      </c>
-      <c r="H31" t="n">
         <v>2</v>
       </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>726.2178</v>
       </c>
       <c r="G32" t="n">
-        <v>-98170.01708384772</v>
-      </c>
-      <c r="H32" t="n">
         <v>2</v>
       </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>500</v>
       </c>
       <c r="G33" t="n">
-        <v>-97670.01708384772</v>
-      </c>
-      <c r="H33" t="n">
         <v>2</v>
       </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>24.45</v>
       </c>
       <c r="G34" t="n">
-        <v>-97694.46708384772</v>
-      </c>
-      <c r="H34" t="n">
         <v>2</v>
       </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>233.0818</v>
       </c>
       <c r="G35" t="n">
-        <v>-97927.54888384772</v>
-      </c>
-      <c r="H35" t="n">
         <v>2</v>
       </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>762.6662</v>
       </c>
       <c r="G36" t="n">
-        <v>-98690.21508384772</v>
-      </c>
-      <c r="H36" t="n">
         <v>2</v>
       </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>1214.0783</v>
       </c>
       <c r="G37" t="n">
-        <v>-99904.29338384772</v>
-      </c>
-      <c r="H37" t="n">
         <v>2</v>
       </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>1400</v>
       </c>
       <c r="G38" t="n">
-        <v>-101304.2933838477</v>
-      </c>
-      <c r="H38" t="n">
         <v>2</v>
       </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>3369</v>
       </c>
       <c r="G39" t="n">
-        <v>-104673.2933838477</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>183.7961</v>
       </c>
       <c r="G40" t="n">
-        <v>-104857.0894838477</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>72.0257</v>
       </c>
       <c r="G41" t="n">
-        <v>-104929.1151838477</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>296.6186</v>
       </c>
       <c r="G42" t="n">
-        <v>-105225.7337838477</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>2200</v>
       </c>
       <c r="G43" t="n">
-        <v>-107425.7337838477</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>800</v>
       </c>
       <c r="G44" t="n">
-        <v>-106625.7337838477</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>2200</v>
       </c>
       <c r="G45" t="n">
-        <v>-108825.7337838477</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>5121.1227</v>
       </c>
       <c r="G46" t="n">
-        <v>-103704.6110838477</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>3981.732</v>
       </c>
       <c r="G47" t="n">
-        <v>-107686.3430838477</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>185.3621</v>
       </c>
       <c r="G48" t="n">
-        <v>-107871.7051838477</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>567.2609</v>
       </c>
       <c r="G49" t="n">
-        <v>-108438.9660838477</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>2521.494</v>
       </c>
       <c r="G50" t="n">
-        <v>-110960.4600838477</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>18638</v>
       </c>
       <c r="G51" t="n">
-        <v>-110960.4600838477</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>194.4123</v>
       </c>
       <c r="G52" t="n">
-        <v>-110766.0477838477</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>90.4901</v>
       </c>
       <c r="G53" t="n">
-        <v>-110856.5378838477</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>4350</v>
       </c>
       <c r="G54" t="n">
-        <v>-115206.5378838477</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>2700</v>
       </c>
       <c r="G55" t="n">
-        <v>-117906.5378838477</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>2200</v>
       </c>
       <c r="G56" t="n">
-        <v>-120106.5378838477</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>3.583943931188276</v>
       </c>
       <c r="G57" t="n">
-        <v>-120102.9539399166</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>741.7429</v>
       </c>
       <c r="G58" t="n">
-        <v>-120844.6968399165</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>222.2968</v>
       </c>
       <c r="G59" t="n">
-        <v>-120622.4000399166</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>100</v>
       </c>
       <c r="G60" t="n">
-        <v>-120522.4000399166</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>141.437</v>
       </c>
       <c r="G61" t="n">
-        <v>-120663.8370399166</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>499.9999</v>
       </c>
       <c r="G62" t="n">
-        <v>-121163.8369399166</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>3.186745156150414</v>
       </c>
       <c r="G63" t="n">
-        <v>-121160.6501947604</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>1251.9571</v>
       </c>
       <c r="G64" t="n">
-        <v>-122412.6072947604</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>2166.3948</v>
       </c>
       <c r="G65" t="n">
-        <v>-120246.2124947604</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>2169.5479</v>
       </c>
       <c r="G66" t="n">
-        <v>-122415.7603947604</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>365.466</v>
       </c>
       <c r="G67" t="n">
-        <v>-122415.7603947604</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>473.1419</v>
       </c>
       <c r="G68" t="n">
-        <v>-122415.7603947604</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>674.4652</v>
       </c>
       <c r="G69" t="n">
-        <v>-122415.7603947604</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>482.2911</v>
       </c>
       <c r="G70" t="n">
-        <v>-122415.7603947604</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>567.034</v>
       </c>
       <c r="G71" t="n">
-        <v>-122415.7603947604</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>826.7809</v>
       </c>
       <c r="G72" t="n">
-        <v>-123242.5412947604</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>571.7768</v>
       </c>
       <c r="G73" t="n">
-        <v>-123242.5412947604</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>263.0041</v>
       </c>
       <c r="G74" t="n">
-        <v>-123242.5412947604</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>524.1827</v>
       </c>
       <c r="G75" t="n">
-        <v>-123766.7239947604</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>1358.0017</v>
       </c>
       <c r="G76" t="n">
-        <v>-122408.7222947604</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>3637.164</v>
       </c>
       <c r="G77" t="n">
-        <v>-122408.7222947604</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>1330.0303</v>
       </c>
       <c r="G78" t="n">
-        <v>-122408.7222947604</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>426.4078</v>
       </c>
       <c r="G79" t="n">
-        <v>-121982.3144947604</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>354.2157</v>
       </c>
       <c r="G80" t="n">
-        <v>-121628.0987947604</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>138.467</v>
       </c>
       <c r="G81" t="n">
-        <v>-121628.0987947604</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>1756.4381</v>
       </c>
       <c r="G82" t="n">
-        <v>-123384.5368947604</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>1030.355305665264</v>
       </c>
       <c r="G83" t="n">
-        <v>-122354.1815890952</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>50.2128</v>
       </c>
       <c r="G84" t="n">
-        <v>-122404.3943890951</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>0.0001</v>
       </c>
       <c r="G85" t="n">
-        <v>-122404.3942890951</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>611.9951</v>
       </c>
       <c r="G86" t="n">
-        <v>-121792.3991890951</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>99.9999</v>
       </c>
       <c r="G87" t="n">
-        <v>-121692.3992890951</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>3.3409</v>
       </c>
       <c r="G88" t="n">
-        <v>-121695.7401890951</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>449.0713</v>
       </c>
       <c r="G89" t="n">
-        <v>-121246.6688890951</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>146.0165</v>
       </c>
       <c r="G90" t="n">
-        <v>-121100.6523890952</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>90.4901</v>
       </c>
       <c r="G91" t="n">
-        <v>-121100.6523890952</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>499.6499</v>
       </c>
       <c r="G92" t="n">
-        <v>-121600.3022890952</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>22.6074</v>
       </c>
       <c r="G93" t="n">
-        <v>-121600.3022890952</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>762.2573</v>
       </c>
       <c r="G94" t="n">
-        <v>-120838.0449890952</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>1345.0269</v>
       </c>
       <c r="G95" t="n">
-        <v>-122183.0718890952</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>8000</v>
       </c>
       <c r="G96" t="n">
-        <v>-130183.0718890952</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>34250</v>
       </c>
       <c r="G97" t="n">
-        <v>-164433.0718890952</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>493.6618</v>
       </c>
       <c r="G98" t="n">
-        <v>-163939.4100890952</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>11412.8828</v>
       </c>
       <c r="G99" t="n">
-        <v>-175352.2928890951</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>15250</v>
       </c>
       <c r="G100" t="n">
-        <v>-175352.2928890951</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>2700</v>
       </c>
       <c r="G101" t="n">
-        <v>-175352.2928890951</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>747.9213</v>
       </c>
       <c r="G102" t="n">
-        <v>-174604.3715890952</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>1514</v>
       </c>
       <c r="G103" t="n">
-        <v>-176118.3715890952</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>319.2849</v>
       </c>
       <c r="G104" t="n">
-        <v>-176118.3715890952</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>3099.2721</v>
       </c>
       <c r="G105" t="n">
-        <v>-179217.6436890952</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>1010.6071</v>
       </c>
       <c r="G106" t="n">
-        <v>-180228.2507890952</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>451.2454</v>
       </c>
       <c r="G107" t="n">
-        <v>-180679.4961890952</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,24 +3623,21 @@
         <v>9580.5517</v>
       </c>
       <c r="G108" t="n">
-        <v>-190260.0478890952</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
         <v>294</v>
       </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3985,24 +3659,21 @@
         <v>2006.6762</v>
       </c>
       <c r="G109" t="n">
-        <v>-188253.3716890952</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
         <v>292.3</v>
       </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4024,24 +3695,21 @@
         <v>189.5923</v>
       </c>
       <c r="G110" t="n">
-        <v>-188442.9639890952</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
         <v>299.8</v>
       </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4063,24 +3731,21 @@
         <v>49.875</v>
       </c>
       <c r="G111" t="n">
-        <v>-188492.8389890952</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
         <v>296</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4102,24 +3767,21 @@
         <v>898</v>
       </c>
       <c r="G112" t="n">
-        <v>-187594.8389890952</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
         <v>294</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4141,24 +3803,21 @@
         <v>283.0849</v>
       </c>
       <c r="G113" t="n">
-        <v>-187311.7540890952</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
         <v>295</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4180,24 +3839,21 @@
         <v>16.8520390967307</v>
       </c>
       <c r="G114" t="n">
-        <v>-187328.6061281919</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
         <v>297</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4219,24 +3875,21 @@
         <v>4</v>
       </c>
       <c r="G115" t="n">
-        <v>-187332.6061281919</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
         <v>296.7</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4258,24 +3911,21 @@
         <v>209.0858</v>
       </c>
       <c r="G116" t="n">
-        <v>-187332.6061281919</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
         <v>295</v>
       </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
